--- a/experiments/human_evaluations/five_answer_best_context_concat_human_eval.xlsx
+++ b/experiments/human_evaluations/five_answer_best_context_concat_human_eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iTA\experiments\human_evaluations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B206442-E883-428A-94F2-1C6375B88863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C7C228-FB98-4BEE-B9D2-BFC0F7A9119C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2253,7 +2253,7 @@
   <dimension ref="A1:O116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2350,6 +2350,12 @@
       <c r="M2">
         <v>0.85346591472625699</v>
       </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2391,6 +2397,12 @@
       <c r="M3">
         <v>0.83176004886627197</v>
       </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2432,6 +2444,12 @@
       <c r="M4">
         <v>0.89286082983016901</v>
       </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -2473,6 +2491,12 @@
       <c r="M5">
         <v>0.834603071212768</v>
       </c>
+      <c r="N5">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -2514,6 +2538,12 @@
       <c r="M6">
         <v>0.83039826154708796</v>
       </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -2555,6 +2585,12 @@
       <c r="M7">
         <v>0.81180441379547097</v>
       </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -2596,6 +2632,12 @@
       <c r="M8">
         <v>0.83828437328338601</v>
       </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -2637,6 +2679,12 @@
       <c r="M9">
         <v>0.822401523590087</v>
       </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -2678,6 +2726,12 @@
       <c r="M10">
         <v>0.89672809839248602</v>
       </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2719,6 +2773,12 @@
       <c r="M11">
         <v>0.82853496074676503</v>
       </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -2760,6 +2820,12 @@
       <c r="M12">
         <v>0.82884186506271296</v>
       </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -2801,6 +2867,12 @@
       <c r="M13">
         <v>0.83624154329299905</v>
       </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -2842,6 +2914,12 @@
       <c r="M14">
         <v>0.83742076158523504</v>
       </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -2883,6 +2961,12 @@
       <c r="M15">
         <v>0.85261577367782504</v>
       </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -2924,8 +3008,14 @@
       <c r="M16">
         <v>0.83709752559661799</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2965,8 +3055,14 @@
       <c r="M17">
         <v>0.83848971128463701</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -3006,8 +3102,14 @@
       <c r="M18">
         <v>0.83717513084411599</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
@@ -3047,8 +3149,14 @@
       <c r="M19">
         <v>0.87804210186004605</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -3088,8 +3196,14 @@
       <c r="M20">
         <v>0.85250061750411898</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="360" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -3129,8 +3243,14 @@
       <c r="M21">
         <v>0.84545421600341797</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
@@ -3170,8 +3290,14 @@
       <c r="M22">
         <v>0.82963234186172397</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
@@ -3211,8 +3337,14 @@
       <c r="M23">
         <v>0.84424257278442305</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>98</v>
       </c>
@@ -3252,8 +3384,14 @@
       <c r="M24">
         <v>0.87825345993041903</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -3293,8 +3431,14 @@
       <c r="M25">
         <v>0.84328162670135498</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>106</v>
       </c>
@@ -3334,8 +3478,14 @@
       <c r="M26">
         <v>0.85357087850570601</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>110</v>
       </c>
@@ -3375,8 +3525,14 @@
       <c r="M27">
         <v>0.86311173439025801</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>114</v>
       </c>
@@ -3416,8 +3572,14 @@
       <c r="M28">
         <v>0.810674428939819</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -3457,8 +3619,14 @@
       <c r="M29">
         <v>0.827853143215179</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="360" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>122</v>
       </c>
@@ -3498,8 +3666,14 @@
       <c r="M30">
         <v>0.86241024732589699</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="360" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -3539,8 +3713,14 @@
       <c r="M31">
         <v>0.86182445287704401</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>130</v>
       </c>
@@ -3580,8 +3760,14 @@
       <c r="M32">
         <v>0.83005851507186801</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>134</v>
       </c>
@@ -3621,8 +3807,14 @@
       <c r="M33">
         <v>0.84389537572860696</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>138</v>
       </c>
@@ -3662,8 +3854,14 @@
       <c r="M34">
         <v>0.818068027496337</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="405" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="405" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>142</v>
       </c>
@@ -3703,8 +3901,14 @@
       <c r="M35">
         <v>0.85693848133087103</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>146</v>
       </c>
@@ -3744,8 +3948,14 @@
       <c r="M36">
         <v>0.84069168567657404</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>150</v>
       </c>
@@ -3785,8 +3995,14 @@
       <c r="M37">
         <v>0.852774858474731</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>154</v>
       </c>
@@ -3826,8 +4042,14 @@
       <c r="M38">
         <v>0.91263586282730103</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="405" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="405" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>158</v>
       </c>
@@ -3867,8 +4089,14 @@
       <c r="M39">
         <v>0.81375914812088002</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>162</v>
       </c>
@@ -3908,8 +4136,14 @@
       <c r="M40">
         <v>0.83539134263992298</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>166</v>
       </c>
@@ -3949,8 +4183,14 @@
       <c r="M41">
         <v>0.83412945270538297</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>170</v>
       </c>
@@ -3990,8 +4230,14 @@
       <c r="M42">
         <v>0.80731201171875</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>174</v>
       </c>
@@ -4031,8 +4277,14 @@
       <c r="M43">
         <v>0.91566067934036199</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="N43">
+        <v>5</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="360" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>178</v>
       </c>
@@ -4072,8 +4324,14 @@
       <c r="M44">
         <v>0.89011490345001198</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>182</v>
       </c>
@@ -4113,8 +4371,14 @@
       <c r="M45">
         <v>0.82124114036560003</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>186</v>
       </c>
@@ -4154,8 +4418,14 @@
       <c r="M46">
         <v>0.82665312290191595</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -4195,8 +4465,14 @@
       <c r="M47">
         <v>0.83020114898681596</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>195</v>
       </c>
@@ -4236,8 +4512,14 @@
       <c r="M48">
         <v>0.86508291959762496</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="405" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="405" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>199</v>
       </c>
@@ -4277,8 +4559,14 @@
       <c r="M49">
         <v>0.85222166776657104</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="375" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="375" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>203</v>
       </c>
@@ -4318,8 +4606,14 @@
       <c r="M50">
         <v>0.81344383955001798</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="375" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>4</v>
+      </c>
+      <c r="O50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="375" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>207</v>
       </c>
@@ -4359,8 +4653,14 @@
       <c r="M51">
         <v>0.844618439674377</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>4</v>
+      </c>
+      <c r="O51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>211</v>
       </c>
@@ -4400,8 +4700,14 @@
       <c r="M52">
         <v>0.86303299665451005</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>215</v>
       </c>
@@ -4441,8 +4747,14 @@
       <c r="M53">
         <v>0.86829608678817705</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="375" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="375" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>219</v>
       </c>
@@ -4482,8 +4794,14 @@
       <c r="M54">
         <v>0.84083896875381403</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>223</v>
       </c>
@@ -4523,8 +4841,14 @@
       <c r="M55">
         <v>0.82401686906814497</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="345" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="345" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>227</v>
       </c>
@@ -4564,8 +4888,14 @@
       <c r="M56">
         <v>0.82777786254882801</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>231</v>
       </c>
@@ -4605,8 +4935,14 @@
       <c r="M57">
         <v>0.82085400819778398</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="360" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>235</v>
       </c>
@@ -4646,8 +4982,14 @@
       <c r="M58">
         <v>0.84832602739334095</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="360" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>239</v>
       </c>
@@ -4687,8 +5029,14 @@
       <c r="M59">
         <v>0.84343260526657104</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>243</v>
       </c>
@@ -4728,8 +5076,14 @@
       <c r="M60">
         <v>0.854078829288482</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>247</v>
       </c>
@@ -4769,8 +5123,14 @@
       <c r="M61">
         <v>0.85214823484420699</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>251</v>
       </c>
@@ -4810,8 +5170,14 @@
       <c r="M62">
         <v>0.83972752094268799</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="405" x14ac:dyDescent="0.25">
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="405" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>255</v>
       </c>
@@ -4851,8 +5217,14 @@
       <c r="M63">
         <v>0.84362459182739202</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>259</v>
       </c>
@@ -4892,8 +5264,14 @@
       <c r="M64">
         <v>0.84660965204238803</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>263</v>
       </c>
@@ -4933,8 +5311,14 @@
       <c r="M65">
         <v>0.87773036956787098</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>267</v>
       </c>
@@ -4974,8 +5358,14 @@
       <c r="M66">
         <v>0.86046814918518</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="345" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="345" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>271</v>
       </c>
@@ -5015,8 +5405,14 @@
       <c r="M67">
         <v>0.86585098505020097</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="405" x14ac:dyDescent="0.25">
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="405" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>275</v>
       </c>
@@ -5056,8 +5452,14 @@
       <c r="M68">
         <v>0.84855276346206598</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>279</v>
       </c>
@@ -5097,8 +5499,14 @@
       <c r="M69">
         <v>0.81191736459732</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>283</v>
       </c>
@@ -5138,8 +5546,14 @@
       <c r="M70">
         <v>0.84115087985992398</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>287</v>
       </c>
@@ -5179,8 +5593,14 @@
       <c r="M71">
         <v>0.84789782762527399</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>291</v>
       </c>
@@ -5220,8 +5640,14 @@
       <c r="M72">
         <v>0.84498232603073098</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>295</v>
       </c>
@@ -5261,8 +5687,14 @@
       <c r="M73">
         <v>0.79043745994567804</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>299</v>
       </c>
@@ -5302,8 +5734,14 @@
       <c r="M74">
         <v>0.83473211526870705</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <v>4</v>
+      </c>
+      <c r="O74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>303</v>
       </c>
@@ -5343,8 +5781,14 @@
       <c r="M75">
         <v>0.83338320255279497</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>307</v>
       </c>
@@ -5384,8 +5828,14 @@
       <c r="M76">
         <v>0.85615515708923295</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N76">
+        <v>4</v>
+      </c>
+      <c r="O76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>311</v>
       </c>
@@ -5425,8 +5875,14 @@
       <c r="M77">
         <v>0.82671427726745605</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>315</v>
       </c>
@@ -5466,8 +5922,14 @@
       <c r="M78">
         <v>0.81060773134231501</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>319</v>
       </c>
@@ -5507,8 +5969,14 @@
       <c r="M79">
         <v>0.81085377931594804</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="405" x14ac:dyDescent="0.25">
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="405" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>323</v>
       </c>
@@ -5548,8 +6016,14 @@
       <c r="M80">
         <v>0.827417492866516</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="375" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="375" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>327</v>
       </c>
@@ -5589,8 +6063,14 @@
       <c r="M81">
         <v>0.82993692159652699</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>331</v>
       </c>
@@ -5630,8 +6110,14 @@
       <c r="M82">
         <v>0.80797165632247903</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>335</v>
       </c>
@@ -5671,8 +6157,14 @@
       <c r="M83">
         <v>0.81207066774368197</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>339</v>
       </c>
@@ -5712,8 +6204,14 @@
       <c r="M84">
         <v>0.83953624963760298</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>343</v>
       </c>
@@ -5753,8 +6251,14 @@
       <c r="M85">
         <v>0.824826419353485</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N85">
+        <v>4</v>
+      </c>
+      <c r="O85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>347</v>
       </c>
@@ -5794,8 +6298,14 @@
       <c r="M86">
         <v>0.82075136899948098</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>351</v>
       </c>
@@ -5835,8 +6345,14 @@
       <c r="M87">
         <v>0.83162105083465498</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N87">
+        <v>5</v>
+      </c>
+      <c r="O87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>355</v>
       </c>
@@ -5876,8 +6392,14 @@
       <c r="M88">
         <v>0.84384107589721602</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N88">
+        <v>5</v>
+      </c>
+      <c r="O88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>359</v>
       </c>
@@ -5917,8 +6439,14 @@
       <c r="M89">
         <v>0.82543885707855202</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>363</v>
       </c>
@@ -5958,8 +6486,14 @@
       <c r="M90">
         <v>0.81406074762344305</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>367</v>
       </c>
@@ -5999,8 +6533,14 @@
       <c r="M91">
         <v>0.80979675054550104</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="375" x14ac:dyDescent="0.25">
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="375" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>371</v>
       </c>
@@ -6040,8 +6580,14 @@
       <c r="M92">
         <v>0.78953051567077603</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>375</v>
       </c>
@@ -6081,8 +6627,14 @@
       <c r="M93">
         <v>0.84726017713546697</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N93">
+        <v>5</v>
+      </c>
+      <c r="O93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>379</v>
       </c>
@@ -6122,8 +6674,14 @@
       <c r="M94">
         <v>0.83120977878570501</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>383</v>
       </c>
@@ -6163,8 +6721,14 @@
       <c r="M95">
         <v>0.83805000782012895</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="360" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>387</v>
       </c>
@@ -6204,8 +6768,14 @@
       <c r="M96">
         <v>0.82329297065734797</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>391</v>
       </c>
@@ -6245,8 +6815,14 @@
       <c r="M97">
         <v>0.81068968772888095</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>395</v>
       </c>
@@ -6286,8 +6862,14 @@
       <c r="M98">
         <v>0.82178145647048895</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>399</v>
       </c>
@@ -6327,8 +6909,14 @@
       <c r="M99">
         <v>0.81090050935745195</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="345" x14ac:dyDescent="0.25">
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="345" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>403</v>
       </c>
@@ -6368,8 +6956,14 @@
       <c r="M100">
         <v>0.80224138498306197</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>407</v>
       </c>
@@ -6409,8 +7003,14 @@
       <c r="M101">
         <v>0.82882374525070102</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>411</v>
       </c>
@@ -6450,8 +7050,14 @@
       <c r="M102">
         <v>0.797565817832946</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>415</v>
       </c>
@@ -6491,8 +7097,14 @@
       <c r="M103">
         <v>0.79793500900268499</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>419</v>
       </c>
@@ -6532,8 +7144,14 @@
       <c r="M104">
         <v>0.80583852529525701</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>423</v>
       </c>
@@ -6573,8 +7191,14 @@
       <c r="M105">
         <v>0.80531394481658902</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>427</v>
       </c>
@@ -6614,8 +7238,14 @@
       <c r="M106">
         <v>0.82848918437957697</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>431</v>
       </c>
@@ -6655,8 +7285,14 @@
       <c r="M107">
         <v>0.80689507722854603</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>435</v>
       </c>
@@ -6696,8 +7332,14 @@
       <c r="M108">
         <v>0.82244753837585405</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>439</v>
       </c>
@@ -6737,8 +7379,14 @@
       <c r="M109">
         <v>0.81375157833099299</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>443</v>
       </c>
@@ -6778,8 +7426,14 @@
       <c r="M110">
         <v>0.80771511793136597</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>447</v>
       </c>
@@ -6819,8 +7473,14 @@
       <c r="M111">
         <v>0.81541883945464999</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>451</v>
       </c>
@@ -6860,8 +7520,14 @@
       <c r="M112">
         <v>0.81400793790817205</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>455</v>
       </c>
@@ -6901,8 +7567,14 @@
       <c r="M113">
         <v>0.80514478683471602</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="360" x14ac:dyDescent="0.25">
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="360" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>459</v>
       </c>
@@ -6942,8 +7614,14 @@
       <c r="M114">
         <v>0.81097310781478804</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="N114">
+        <v>5</v>
+      </c>
+      <c r="O114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>463</v>
       </c>
@@ -6983,8 +7661,14 @@
       <c r="M115">
         <v>0.80574160814285201</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="390" x14ac:dyDescent="0.25">
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>467</v>
       </c>
@@ -7023,6 +7707,12 @@
       </c>
       <c r="M116">
         <v>0.79411786794662398</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/human_evaluations/five_answer_best_context_concat_human_eval.xlsx
+++ b/experiments/human_evaluations/five_answer_best_context_concat_human_eval.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iTA\experiments\human_evaluations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhysb\Git_Repositories\iLFQA\experiments\human_evaluations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C7C228-FB98-4BEE-B9D2-BFC0F7A9119C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EC6334-B7FA-4295-9CDA-1D45FB674264}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2252,7 +2252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -4425,7 +4425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="405" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>190</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="405" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>195</v>
       </c>
@@ -4989,7 +4989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="360" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" ht="345" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>239</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="405" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="390" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>255</v>
       </c>
@@ -7725,8 +7725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD081FEC-996E-4CE6-AC80-F09D68C6AACF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
